--- a/data/WealthbyRaceoverLifetime.xlsx
+++ b/data/WealthbyRaceoverLifetime.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Wealth By Race over Lifetime" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,15 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>African American</t>
   </si>
   <si>
     <t>Average Family Wealth for Those Born 1943-51 by Race</t>
@@ -59,20 +69,63 @@
     </r>
   </si>
   <si>
-    <t>Source: Urban Institute calculations from Survey of Consumer Finances 1983–2013.</t>
+    <t>Black</t>
   </si>
   <si>
-    <t>Notes: 2013 dollars. Hispanic sample size too small to show. Age is defined as the age of the household head. In 2013, these people were age 62–70. In 1983, ages 32–40.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Urban Institute calculations from Survey of Consumer Finances 1983–2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> 2016 dollars. Hispanic sample size too small to show. Age is defined as the age of the household head. In 2016, these people were age 65–73. In 1983, ages 32–40.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +176,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,10 +220,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -171,7 +246,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -179,6 +254,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -201,6 +285,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23667,12 +23754,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23702,12 +23789,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23911,26 +23998,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1983</v>
       </c>
@@ -23961,83 +24056,100 @@
       <c r="K2">
         <v>2013</v>
       </c>
+      <c r="L2">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>204130.93</v>
+      <c r="B3" s="5">
+        <v>210741.92</v>
       </c>
-      <c r="C3">
-        <v>383043.64</v>
+      <c r="C3" s="5">
+        <v>395395.72</v>
       </c>
-      <c r="D3">
-        <v>410386.43</v>
+      <c r="D3" s="5">
+        <v>423597.7</v>
       </c>
-      <c r="E3">
-        <v>493450.35</v>
+      <c r="E3" s="5">
+        <v>509094.94</v>
       </c>
-      <c r="F3">
-        <v>671449.03</v>
+      <c r="F3" s="5">
+        <v>701825.41</v>
       </c>
-      <c r="G3">
-        <v>974449.18</v>
+      <c r="G3" s="5">
+        <v>1018077.2</v>
       </c>
-      <c r="H3">
-        <v>1155156.3</v>
+      <c r="H3" s="5">
+        <v>1205138.8999999999</v>
       </c>
-      <c r="I3">
-        <v>1261739.3</v>
+      <c r="I3" s="5">
+        <v>1338772</v>
       </c>
-      <c r="J3">
-        <v>1203205</v>
+      <c r="J3" s="5">
+        <v>1253014.6000000001</v>
       </c>
-      <c r="K3">
-        <v>1217942.5</v>
+      <c r="K3" s="5">
+        <v>1261285.8</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1338360.1000000001</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>63444.334000000003</v>
+      </c>
+      <c r="C4" s="5">
+        <v>126714.82</v>
+      </c>
+      <c r="D4" s="5">
+        <v>102510.98</v>
+      </c>
+      <c r="E4" s="5">
+        <v>112604.41</v>
+      </c>
+      <c r="F4" s="5">
+        <v>138668.84</v>
+      </c>
+      <c r="G4" s="5">
+        <v>168999.75</v>
+      </c>
+      <c r="H4" s="5">
+        <v>277834.46000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>251223.5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>167866</v>
+      </c>
+      <c r="K4" s="5">
+        <v>120797.94</v>
+      </c>
+      <c r="L4" s="5">
+        <v>203687.83</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>61454.078000000001</v>
-      </c>
-      <c r="C4">
-        <v>122756.27</v>
-      </c>
-      <c r="D4">
-        <v>99313.841</v>
-      </c>
-      <c r="E4">
-        <v>109144.06</v>
-      </c>
-      <c r="F4">
-        <v>137073.24</v>
-      </c>
-      <c r="G4">
-        <v>171990.58</v>
-      </c>
-      <c r="H4">
-        <v>265305.89</v>
-      </c>
-      <c r="I4">
-        <v>249652.44</v>
-      </c>
-      <c r="J4">
-        <v>172400.03</v>
-      </c>
-      <c r="K4">
-        <v>115238.17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1983</v>
       </c>
@@ -24068,97 +24180,148 @@
       <c r="K7">
         <v>2013</v>
       </c>
+      <c r="L7">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>98138.983999999997</v>
+      <c r="B8" s="5">
+        <v>101317.32</v>
       </c>
-      <c r="C8">
-        <v>158343.22</v>
+      <c r="C8" s="5">
+        <v>163449.34</v>
       </c>
-      <c r="D8">
-        <v>132093.29999999999</v>
+      <c r="D8" s="5">
+        <v>136345.67000000001</v>
       </c>
-      <c r="E8">
-        <v>174025.03</v>
+      <c r="E8" s="5">
+        <v>179542.41</v>
       </c>
-      <c r="F8">
-        <v>213520.53</v>
+      <c r="F8" s="5">
+        <v>224269.55</v>
       </c>
-      <c r="G8">
-        <v>265532.31</v>
+      <c r="G8" s="5">
+        <v>281714.19</v>
       </c>
-      <c r="H8">
-        <v>397195.06</v>
+      <c r="H8" s="5">
+        <v>418543.47</v>
       </c>
-      <c r="I8">
-        <v>353568.31</v>
+      <c r="I8" s="5">
+        <v>367785.56</v>
       </c>
-      <c r="J8">
-        <v>302539.71999999997</v>
+      <c r="J8" s="5">
+        <v>327287.84000000003</v>
       </c>
-      <c r="K8">
-        <v>331700</v>
+      <c r="K8" s="5">
+        <v>343667.19</v>
       </c>
+      <c r="L8" s="5">
+        <v>317510</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>1</v>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
       </c>
-      <c r="B9">
-        <v>13439.467000000001</v>
+      <c r="B9" s="5">
+        <v>13874.718999999999</v>
       </c>
-      <c r="C9">
-        <v>4862.3657000000003</v>
+      <c r="C9" s="5">
+        <v>5019.1635999999999</v>
       </c>
-      <c r="D9">
-        <v>40196.652000000002</v>
+      <c r="D9" s="5">
+        <v>41490.675999999999</v>
       </c>
-      <c r="E9">
-        <v>54734.781000000003</v>
+      <c r="E9" s="5">
+        <v>56470.120999999999</v>
       </c>
-      <c r="F9">
-        <v>25688.508000000002</v>
+      <c r="F9" s="5">
+        <v>26513.973000000002</v>
       </c>
-      <c r="G9">
-        <v>62180.785000000003</v>
+      <c r="G9" s="5">
+        <v>64355.425999999999</v>
       </c>
-      <c r="H9">
-        <v>50854.777000000002</v>
+      <c r="H9" s="5">
+        <v>52448.288999999997</v>
       </c>
-      <c r="I9">
-        <v>120925.08</v>
+      <c r="I9" s="5">
+        <v>121695.8</v>
       </c>
-      <c r="J9">
-        <v>38795.387000000002</v>
+      <c r="J9" s="5">
+        <v>38686.508000000002</v>
       </c>
-      <c r="K9">
-        <v>46200</v>
+      <c r="K9" s="5">
+        <v>48059.788999999997</v>
       </c>
+      <c r="L9" s="5">
+        <v>46890</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/WealthbyRaceoverLifetime.xlsx
+++ b/data/WealthbyRaceoverLifetime.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LHP\SMcKerna\Nine Charts 2017\Nine Charts Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="26100" windowHeight="17745"/>
   </bookViews>
   <sheets>
-    <sheet name="Wealth By Race over Lifetime" sheetId="1" r:id="rId1"/>
+    <sheet name="Wealth by Race over Lifetime" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -39,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>White</t>
-  </si>
-  <si>
-    <t>Average Family Wealth for Those Born 1943-51 by Race</t>
   </si>
   <si>
     <t>Median Family Wealth for Those Born 1943-51 by Race</t>
@@ -78,6 +75,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source:</t>
@@ -94,12 +92,16 @@
     </r>
   </si>
   <si>
+    <t>Average Family Wealth for Those Born 1943–51 by Race</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Notes:</t>
@@ -112,20 +114,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> 2016 dollars. Hispanic sample size too small to show. Age is defined as the age of the household head. In 2016, these people were age 65–73. In 1983, ages 32–40.</t>
+      <t> 2016 dollars. Hispanic sample size too small to show. Age is defined as the age of the household head. In 2016, these people were age 65–73; in 1983, they were ages 32–40.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +198,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -23998,34 +24001,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" customWidth="1"/>
-    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="1" max="12" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="B2">
         <v>1983</v>
       </c>
@@ -24060,7 +24060,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -24102,9 +24102,9 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>63444.334000000003</v>
@@ -24144,12 +24144,12 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="B7">
         <v>1983</v>
       </c>
@@ -24184,7 +24184,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -24226,9 +24226,9 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="5">
         <v>13874.718999999999</v>
@@ -24268,25 +24268,25 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -24300,7 +24300,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -24314,7 +24314,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
